--- a/ja/examples/03/_images/figures.xlsx
+++ b/ja/examples/03/_images/figures.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK88843\git\nablarch-document\ja\examples\03\_images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103D7A83-1550-4904-A782-815402160B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18315" windowHeight="13230"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListSearchResult" sheetId="1" r:id="rId1"/>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,6 +118,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -133,7 +142,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="図 123"/>
+        <xdr:cNvPr id="124" name="図 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -188,7 +203,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="121" name="図 120"/>
+        <xdr:cNvPr id="121" name="図 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -243,7 +264,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="図 100"/>
+        <xdr:cNvPr id="101" name="図 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -298,7 +325,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95"/>
+        <xdr:cNvPr id="96" name="図 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -353,7 +386,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -408,7 +447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -464,7 +509,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -520,7 +571,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -769,7 +826,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="1"/>
           <a:endCxn id="4" idx="3"/>
@@ -819,7 +882,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="1"/>
           <a:endCxn id="5" idx="3"/>
@@ -869,7 +938,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -925,7 +1000,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1007,7 +1088,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="2"/>
           <a:endCxn id="19" idx="0"/>
@@ -1057,7 +1144,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1113,7 +1206,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1234,7 +1333,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -1271,292 +1376,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181350" y="9591675"/>
-          <a:ext cx="495300" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="8039100"/>
-          <a:ext cx="2628899" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>検索結果並び替え用の列見出しのリンク</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="25" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3429000" y="8353425"/>
-          <a:ext cx="361950" cy="1238250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4076700" y="9582150"/>
-          <a:ext cx="419100" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3790950" y="8353425"/>
-          <a:ext cx="495300" cy="1228725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>66</xdr:row>
@@ -1570,7 +1389,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1653,7 +1478,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvPr id="31" name="角丸四角形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1711,7 +1542,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="30" idx="0"/>
           <a:endCxn id="31" idx="2"/>
@@ -1761,7 +1598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvPr id="34" name="角丸四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1817,7 +1660,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1899,7 +1748,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="2"/>
           <a:endCxn id="34" idx="0"/>
@@ -1949,7 +1804,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="角丸四角形 36"/>
+        <xdr:cNvPr id="37" name="角丸四角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2005,7 +1866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2079,7 +1946,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="2"/>
           <a:endCxn id="37" idx="0"/>
@@ -2129,7 +2002,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2202,7 +2081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvPr id="41" name="角丸四角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2260,7 +2145,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="40" idx="0"/>
           <a:endCxn id="41" idx="2"/>
@@ -2310,7 +2201,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2365,7 +2262,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvPr id="46" name="角丸四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2421,7 +2324,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2494,7 +2403,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="2"/>
           <a:endCxn id="46" idx="0"/>
@@ -2544,7 +2459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvPr id="49" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2600,7 +2521,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvPr id="50" name="角丸四角形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2656,7 +2583,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2712,7 +2645,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="角丸四角形 51"/>
+        <xdr:cNvPr id="52" name="角丸四角形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2768,7 +2707,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvPr id="53" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2824,7 +2769,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2897,7 +2848,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2970,7 +2927,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3043,7 +3006,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3116,7 +3085,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="テキスト ボックス 58"/>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3189,7 +3164,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="54" idx="2"/>
           <a:endCxn id="49" idx="0"/>
@@ -3239,7 +3220,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="2"/>
           <a:endCxn id="50" idx="0"/>
@@ -3289,7 +3276,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="59" idx="2"/>
           <a:endCxn id="53" idx="0"/>
@@ -3339,7 +3332,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="56" idx="2"/>
           <a:endCxn id="51" idx="0"/>
@@ -3389,7 +3388,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="57" idx="2"/>
           <a:endCxn id="52" idx="0"/>
@@ -3439,7 +3444,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="テキスト ボックス 87"/>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3512,7 +3523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="角丸四角形 88"/>
+        <xdr:cNvPr id="89" name="角丸四角形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3570,7 +3587,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="88" idx="0"/>
           <a:endCxn id="89" idx="2"/>
@@ -3620,7 +3643,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="角丸四角形 91"/>
+        <xdr:cNvPr id="92" name="角丸四角形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3678,7 +3707,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3751,7 +3786,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="2"/>
           <a:endCxn id="92" idx="0"/>
@@ -3801,7 +3842,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="角丸四角形 104"/>
+        <xdr:cNvPr id="105" name="角丸四角形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3857,7 +3904,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="テキスト ボックス 105"/>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3931,7 +3984,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="106" idx="2"/>
           <a:endCxn id="105" idx="0"/>
@@ -3981,7 +4040,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="角丸四角形 107"/>
+        <xdr:cNvPr id="108" name="角丸四角形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4037,7 +4102,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直線矢印コネクタ 108"/>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="106" idx="2"/>
           <a:endCxn id="108" idx="0"/>
@@ -4087,7 +4158,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="図 114"/>
+        <xdr:cNvPr id="115" name="図 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4142,7 +4219,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="図 116"/>
+        <xdr:cNvPr id="117" name="図 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4197,7 +4280,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="図 118"/>
+        <xdr:cNvPr id="119" name="図 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4252,7 +4341,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="図 122"/>
+        <xdr:cNvPr id="123" name="図 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4296,7 +4391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4338,7 +4433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4371,9 +4466,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4406,6 +4518,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4581,11 +4710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B10:B239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="Q86" sqref="Q86"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4643,6 +4772,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ja/examples/03/_images/figures.xlsx
+++ b/ja/examples/03/_images/figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK88843\git\nablarch-document\ja\examples\03\_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3189D691-D03D-49F8-9C7A-D649C5BC2581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AACF73-552F-4E42-B1D4-409987AE335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,23 +122,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>90241</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>110296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>232576</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>97424</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230611</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>572370</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>129732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1977EA-E96C-41CE-BDA7-FC4CD6F2A827}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709BAA54-C3E8-437D-8246-D64AD1C4066A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -154,8 +154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1453820" y="25506954"/>
-          <a:ext cx="8323809" cy="2714286"/>
+          <a:off x="2275979" y="11440038"/>
+          <a:ext cx="5114286" cy="961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -167,22 +167,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571503</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>150409</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404575</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>108677</xdr:rowOff>
+      <xdr:colOff>90241</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>110296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232576</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>97424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="図 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B2A903-389D-457B-BFF7-F17781DFAD8F}"/>
+        <xdr:cNvPr id="155" name="図 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1977EA-E96C-41CE-BDA7-FC4CD6F2A827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -198,8 +198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1935082" y="11740830"/>
-          <a:ext cx="3923809" cy="980952"/>
+          <a:off x="1453820" y="25506954"/>
+          <a:ext cx="8323809" cy="2714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,16 +254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22060</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>192505</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591552</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>130343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>421107</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>115647</xdr:rowOff>
+      <xdr:rowOff>155753</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -278,7 +278,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4794586" y="11720764"/>
+          <a:off x="6328610" y="11419975"/>
           <a:ext cx="1080837" cy="326199"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -316,16 +316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605093</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>163936</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>13023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21060</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>133338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>462217</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>105767</xdr:rowOff>
+      <xdr:rowOff>155900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -340,7 +340,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695830" y="11212417"/>
+          <a:off x="6300041" y="10921655"/>
           <a:ext cx="1220703" cy="313324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -395,16 +395,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533656</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51134</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>155900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92498</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>105767</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>562479</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>130343</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -416,14 +416,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="32" idx="2"/>
           <a:endCxn id="31" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5306182" y="11525741"/>
-          <a:ext cx="28823" cy="195023"/>
+        <a:xfrm flipH="1">
+          <a:off x="6869029" y="11234979"/>
+          <a:ext cx="41364" cy="184996"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -451,23 +452,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>611606</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>501316</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>90237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270711</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>19544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>261258</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>57867</xdr:rowOff>
+      <xdr:rowOff>100263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="角丸四角形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEAA708-471F-4C7D-99C5-389658BA946C}"/>
+        <xdr:cNvPr id="38" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64154BD-4901-4377-94FD-4A7976F96DEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -475,11 +476,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1975185" y="12291755"/>
-          <a:ext cx="331441" cy="379217"/>
+          <a:off x="3228474" y="12021553"/>
+          <a:ext cx="3178342" cy="350921"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 19109"/>
+          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
         <a:ln>
@@ -513,147 +516,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>14323</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>397329</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>126616</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>52423</xdr:rowOff>
+      <xdr:rowOff>42684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>641685</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>11387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="角丸四角形 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60169299-03F5-48AF-8C3A-F15DA1B92FF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5535959" y="12286534"/>
-          <a:ext cx="315686" cy="378994"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>30653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>36094</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="角丸四角形 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64154BD-4901-4377-94FD-4A7976F96DEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2361054" y="12302864"/>
-          <a:ext cx="3115033" cy="346335"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>187983</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>53964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>481264</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>26393</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8BB387-C4CC-4E86-8538-A8A4B810E3E1}"/>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AD2D00-CF7D-4015-B726-1E4629075690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -661,8 +540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1551562" y="11473938"/>
-          <a:ext cx="975070" cy="313323"/>
+          <a:off x="6262721" y="12655789"/>
+          <a:ext cx="515069" cy="309598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,7 +581,7 @@
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>前のページへ</a:t>
+            <a:t>次へ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -716,95 +595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>547720</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>52708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>160421</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>21412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="テキスト ボックス 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AD2D00-CF7D-4015-B726-1E4629075690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6002036" y="11472682"/>
-          <a:ext cx="976280" cy="309598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>次のページへ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179614</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>8881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>322489</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>148031</xdr:rowOff>
+      <xdr:colOff>510481</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>18908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>653357</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>158059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -819,7 +619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3588561" y="11258407"/>
+          <a:off x="4601218" y="10927540"/>
           <a:ext cx="824665" cy="309598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -874,72 +674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>675518</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>26393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95538</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>19544</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11275432-B3F8-446E-9589-692D52C0A4BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="2"/>
-          <a:endCxn id="35" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2039097" y="11787261"/>
-          <a:ext cx="101809" cy="504494"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>148031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>593952</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>30653</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45119</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>158059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241025</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>90237</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -957,8 +701,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3920576" y="11568005"/>
-          <a:ext cx="82323" cy="734859"/>
+          <a:off x="4817645" y="11237138"/>
+          <a:ext cx="195906" cy="784415"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -986,16 +730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>411079</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>21412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>354071</xdr:colOff>
+      <xdr:colOff>384151</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>40105</xdr:rowOff>
+      <xdr:rowOff>92243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515070</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>42684</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1007,13 +751,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="41" idx="0"/>
+          <a:endCxn id="57" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5865395" y="11782280"/>
-          <a:ext cx="624781" cy="530036"/>
+        <a:xfrm flipV="1">
+          <a:off x="6520256" y="12364454"/>
+          <a:ext cx="130919" cy="291335"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1707,8 +1453,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>320842</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360948</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>80211</xdr:rowOff>
     </xdr:from>
@@ -1731,8 +1477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4411579" y="421106"/>
-          <a:ext cx="3449053" cy="942463"/>
+          <a:off x="5133474" y="421106"/>
+          <a:ext cx="2727158" cy="942463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,7 +1574,7 @@
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>前のページ</a:t>
+            <a:t>前へ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
@@ -1864,7 +1610,7 @@
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>次のページに移動するリンク</a:t>
+            <a:t>次へに移動するリンク</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
@@ -1888,7 +1634,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>360948</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>170437</xdr:rowOff>
     </xdr:from>
@@ -1914,8 +1660,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6136106" y="1363569"/>
-          <a:ext cx="1719512" cy="411089"/>
+          <a:off x="6497053" y="1363569"/>
+          <a:ext cx="1358565" cy="411089"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2944,7 +2690,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2959,6 +2705,662 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83654</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>501315</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>90238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D6B7CE-DB73-453F-ADF0-BC906C2194B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6901549" y="12007806"/>
+          <a:ext cx="417661" cy="354643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306239</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>78495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42110</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>92243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA80FEDE-9F98-408E-B295-5438F34FC934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6442344" y="12009811"/>
+          <a:ext cx="417661" cy="354643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55580</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>88521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473241</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>102269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1391128E-AF72-427B-94B3-71D1E5B147C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2782738" y="12019837"/>
+          <a:ext cx="417661" cy="354643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>278165</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>90526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14036</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F597DC-0BD8-4D3D-8EC5-E52FB89A22F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2323533" y="12021842"/>
+          <a:ext cx="417661" cy="354643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38384</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>44689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>553453</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>13392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8EB97A1-2712-4D78-904B-1D953FF28037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6856279" y="12657794"/>
+          <a:ext cx="515069" cy="309598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>最後</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292485</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>90238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295919</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>44689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E990F8-C0AC-4879-B29C-EE28A4F8D70A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="63" idx="0"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7110380" y="12362449"/>
+          <a:ext cx="3434" cy="295345"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>75905</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>34957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590974</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>3660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65DDC66-73B5-406E-83E4-627B94FD0802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2121273" y="12648062"/>
+          <a:ext cx="515069" cy="309598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>最初</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486996</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>34957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F141157C-427A-4E11-A2AF-2AC2D011F3F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="65" idx="0"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2378808" y="12376485"/>
+          <a:ext cx="153556" cy="271577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97680</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>30367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612749</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>169517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E28EF7-85FA-4D25-A5CE-4DA864A11616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2824838" y="12643472"/>
+          <a:ext cx="515069" cy="309598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>前へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264411</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>102269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355215</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>30367</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584F23C6-3A98-4026-AE7A-9CC5460BFC76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="72" idx="0"/>
+          <a:endCxn id="61" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2991569" y="12374480"/>
+          <a:ext cx="90804" cy="268992"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>

--- a/ja/examples/03/_images/figures.xlsx
+++ b/ja/examples/03/_images/figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK88843\git\nablarch-document\ja\examples\03\_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AACF73-552F-4E42-B1D4-409987AE335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F289E-B3B0-4B95-B876-B5099B6982B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,23 +122,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>230611</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>20064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>572370</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>129732</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238579</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>67839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709BAA54-C3E8-437D-8246-D64AD1C4066A}"/>
+        <xdr:cNvPr id="132" name="図 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8CFDA5-5846-4E4D-B7B7-81C31DB88775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -154,8 +154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2275979" y="11440038"/>
-          <a:ext cx="5114286" cy="961905"/>
+          <a:off x="1383632" y="6567235"/>
+          <a:ext cx="8400000" cy="2704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -166,23 +166,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>90241</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>110296</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563483</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>122326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>232576</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>97424</xdr:rowOff>
+      <xdr:colOff>223453</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1977EA-E96C-41CE-BDA7-FC4CD6F2A827}"/>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2263D56F-5D82-47A0-B973-4C7DDF848F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -198,8 +198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1453820" y="25506954"/>
-          <a:ext cx="8323809" cy="2714286"/>
+          <a:off x="4654220" y="6769773"/>
+          <a:ext cx="5114286" cy="961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -227,6 +227,138 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15979B46-6710-4EE0-9136-27A623858005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1393656" y="1513973"/>
+          <a:ext cx="8400000" cy="2704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561473</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>70183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>221443</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B223F11-9B8A-4B68-A3BE-CA6CC6517C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4652210" y="1774657"/>
+          <a:ext cx="5114286" cy="961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230611</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>572370</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>129732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709BAA54-C3E8-437D-8246-D64AD1C4066A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2275979" y="11440038"/>
+          <a:ext cx="5114286" cy="961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90241</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>110296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232576</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>97424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="図 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1977EA-E96C-41CE-BDA7-FC4CD6F2A827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -242,8 +374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1393656" y="1513973"/>
-          <a:ext cx="8400000" cy="2704762"/>
+          <a:off x="1453820" y="25506954"/>
+          <a:ext cx="8323809" cy="2714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,8 +1523,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>421105</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541421</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>70184</xdr:rowOff>
     </xdr:from>
@@ -1415,8 +1547,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5875421" y="1774658"/>
-          <a:ext cx="3960394" cy="992606"/>
+          <a:off x="4632158" y="1774658"/>
+          <a:ext cx="5203657" cy="992606"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1453,8 +1585,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>360948</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320842</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>80211</xdr:rowOff>
     </xdr:from>
@@ -1477,8 +1609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5133474" y="421106"/>
-          <a:ext cx="2727158" cy="942463"/>
+          <a:off x="4411579" y="421106"/>
+          <a:ext cx="3449053" cy="942463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,6 +1706,24 @@
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
+            <a:t>最初</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>前へ</a:t>
           </a:r>
           <a:r>
@@ -1610,7 +1760,25 @@
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>次へに移動するリンク</a:t>
+            <a:t>次へ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>最後に移動するリンク</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
@@ -1634,13 +1802,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>360948</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>170437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>355934</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>416092</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>70184</xdr:rowOff>
     </xdr:to>
@@ -1660,8 +1828,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6497053" y="1363569"/>
-          <a:ext cx="1358565" cy="411089"/>
+          <a:off x="6136106" y="1363569"/>
+          <a:ext cx="1097881" cy="411089"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1885,50 +2053,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>20053</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>90235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238579</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>67839</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="図 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8CFDA5-5846-4E4D-B7B7-81C31DB88775}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1383632" y="6567235"/>
-          <a:ext cx="8400000" cy="2704762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2139,8 +2263,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>411081</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541421</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>10025</xdr:rowOff>
     </xdr:from>
@@ -2163,8 +2287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5865397" y="6827920"/>
-          <a:ext cx="3960394" cy="992606"/>
+          <a:off x="4632158" y="6827920"/>
+          <a:ext cx="5193633" cy="992606"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2277,13 +2401,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>611607</xdr:colOff>
+      <xdr:colOff>411080</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>110278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>345910</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>611607</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>10025</xdr:rowOff>
     </xdr:to>
@@ -2302,9 +2426,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429502" y="6416831"/>
-          <a:ext cx="416092" cy="411089"/>
+        <a:xfrm flipH="1">
+          <a:off x="7228975" y="6416831"/>
+          <a:ext cx="200527" cy="411089"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2690,7 +2814,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3361,6 +3485,138 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200527</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>90234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406702</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>93178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CB3B79-26CA-4AD0-BDC0-79E19F560E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018422" y="14578260"/>
+          <a:ext cx="2933333" cy="514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441149</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>110291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>348161</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4070A7B-F2EA-4E4A-A2C2-A5CBA0FB06A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7940833" y="18518607"/>
+          <a:ext cx="1952381" cy="466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411077</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>150390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>375232</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>96191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9551F283-76ED-4D00-BC80-933244BC1249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7910761" y="21456311"/>
+          <a:ext cx="2009524" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3689,7 +3945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C649B4A-B843-48A9-BB9B-F2FD7782A397}">
   <dimension ref="B2:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/ja/examples/03/_images/figures.xlsx
+++ b/ja/examples/03/_images/figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK88843\git\nablarch-document\ja\examples\03\_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F289E-B3B0-4B95-B876-B5099B6982B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7980E4A-BCDD-49F5-8980-987A20749C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3945,9 +3945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C649B4A-B843-48A9-BB9B-F2FD7782A397}">
   <dimension ref="B2:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
